--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,6 +2668,1383 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>11:10:32</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11:10:43</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>11:10:54</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>11:11:04</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>11:19:33</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>11:19:44</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>11:19:55</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11:20:05</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>11:31:46</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-08_11-31-46.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>11:31:57</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>11:32:08</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>11:32:18</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>11:41:44</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11:41:55</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>11:42:06</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>11:42:16</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>11:57:30</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>11:57:44</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود ناموفق با نام کاربری اشتباه_2025-07-08_11-57-44.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>11:57:53</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>11:58:01</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>11:58:48</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-08_11-58-48.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>11:58:57</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>11:59:06</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>11:59:20</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود ناموفق با نام کاربری اشتباه_2025-07-08_11-59-19.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>12:01:22</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-08_12-01-22.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>12:01:31</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>12:01:39</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>12:01:48</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>12:03:39</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>12:03:53</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود ناموفق با نام کاربری اشتباه_2025-07-08_12-03-53.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>12:04:02</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>12:04:11</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>12:04:19</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>12:06:47</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>12:12:49</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>12:13:03</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود ناموفق با نام کاربری اشتباه_2025-07-08_12-13-02.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>12:13:11</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12:13:20</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>12:13:28</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>12:14:44</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-08_12-14-44.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>12:14:54</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>12:15:05</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>12:18:14</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>12:18:23</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>12:18:31</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12:18:40</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>13:39:11</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>13:39:20</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>13:39:28</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>13:39:37</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>13:39:46</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,6 +4045,573 @@
         </is>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14:15:01</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>14:15:10</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>تست ورود ناموفق با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>14:15:23</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود ناموفق با پسورد اشتباه_2025-07-08_14-15-23.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>14:17:35</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-08_14-17-35.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>14:17:45</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>14:17:53</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>14:18:02</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>14:18:11</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>14:19:56</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>14:20:05</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>14:20:13</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>14:20:22</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>14:20:31</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>14:20:39</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>08:15:36</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>08:15:47</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>08:15:57</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>08:16:08</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>08:16:18</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>08:16:29</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>08:16:39</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4612,6 +4612,87 @@
         </is>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>14:28:14</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>14:28:22</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-07-12</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>14:28:31</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4693,6 +4693,2220 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10:55:37</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>10:55:47</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>10:55:57</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>11:21:40</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>11:21:48</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>11:21:57</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>11:22:06</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>11:28:02</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>11:28:11</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>11:28:20</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11:28:29</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>11:28:38</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>11:50:09</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>11:50:17</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11:50:26</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>11:50:35</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>11:50:43</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>11:50:51</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>12:20:42</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>12:20:51</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>12:20:59</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>12:21:08</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>12:21:16</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>12:21:26</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>12:21:38</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>13:44:11</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>13:44:20</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>13:44:28</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>13:44:37</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>13:44:45</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>13:44:53</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>13:45:02</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>13:45:11</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>14:11:33</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>14:11:42</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>14:11:50</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>14:11:59</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>14:12:08</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>14:12:15</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>14:12:24</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>14:12:33</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>14:12:42</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>14:34:22</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>14:34:31</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>14:34:40</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>14:34:48</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>14:34:57</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>14:35:05</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>14:35:14</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>14:35:23</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>14:35:32</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>14:36:21</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>14:36:30</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>14:36:40</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>14:36:50</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>14:36:59</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>14:37:07</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>14:37:16</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>14:37:25</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>14:37:34</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>14:37:43</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>15:11:36</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>15:11:44</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>15:11:53</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>15:12:01</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>15:12:10</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>15:12:17</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>15:12:26</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>15:12:35</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>15:12:44</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>15:12:53</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>15:14:25</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>15:14:34</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>15:14:43</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>15:14:51</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>15:15:08</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>15:15:17</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>15:15:26</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>15:15:35</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>15:15:44</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2025-07-14</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>15:15:53</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6907,6 +6907,6243 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>09:43:04</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>09:43:13</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>09:43:23</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>09:43:31</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>09:43:40</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>09:43:47</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>09:43:56</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>09:44:06</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>09:44:14</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>09:44:24</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>09:44:33</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>09:44:43</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>09:55:22</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>09:55:33</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>09:55:44</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>09:55:54</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>09:56:05</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>09:56:15</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>09:56:25</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>09:56:36</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>09:56:44</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>09:56:53</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>09:57:02</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>09:57:11</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>09:57:18</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>09:57:28</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>09:57:37</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>09:57:46</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>09:57:55</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>09:58:04</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>09:58:13</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>09:58:23</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>10:06:35</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>10:06:46</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>10:06:57</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>10:07:08</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>10:07:18</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>10:07:29</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>10:07:39</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>10:07:51</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>10:07:59</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>10:08:08</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>10:08:16</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>10:08:24</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>10:08:32</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>10:08:41</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>10:08:50</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>10:08:58</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>10:09:07</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>10:09:16</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>10:09:26</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>10:09:35</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>10:32:48</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>10:32:59</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>10:33:10</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>10:33:20</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>10:33:31</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>10:33:41</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>10:33:52</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>10:34:04</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>10:34:13</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>10:34:21</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>10:34:30</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>10:34:39</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>10:34:47</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>10:34:56</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>10:35:05</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>10:35:15</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>10:35:24</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>10:35:33</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>10:35:42</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>10:35:52</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>10:43:49</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>10:44:00</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>10:44:11</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>10:44:21</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>10:44:32</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>10:44:43</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>10:44:53</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>10:45:05</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>10:45:14</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>10:45:22</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>10:45:31</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>10:45:40</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>10:45:47</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>10:45:56</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>10:46:05</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>10:46:15</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>10:46:24</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>10:46:33</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>10:46:43</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>10:46:52</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>10:49:13</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>10:49:24</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>10:49:34</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>10:49:45</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>10:49:55</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>10:50:06</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>10:50:16</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>10:50:28</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>10:50:37</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>10:50:46</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون کد ملی</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>10:50:55</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون شماره موبایل</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>10:51:03</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تاریخ تولد</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>10:51:11</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون پسورد</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>10:51:20</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون تکرار پسورد</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>10:51:29</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>10:51:38</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>10:51:47</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>10:51:56</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>10:52:06</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>10:52:15</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>10:55:34</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>10:55:44</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>10:55:55</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>10:56:06</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>10:56:16</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>10:56:27</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>10:56:38</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>11:06:10</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>11:06:21</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>11:06:31</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>11:06:42</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>11:06:53</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>11:07:03</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>11:07:14</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>11:12:33</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>11:12:43</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>11:12:54</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>11:13:05</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>11:13:15</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>11:13:26</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>11:13:36</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>11:20:45</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>11:20:56</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>11:21:07</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>11:21:18</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>11:21:28</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>11:21:39</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>11:21:50</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>11:25:18</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>11:25:29</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>11:25:39</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>11:25:50</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>11:26:00</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>11:26:11</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>11:26:21</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>11:29:16</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-15_11-29-16.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>11:29:27</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>11:29:37</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>11:29:48</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>11:29:58</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>11:30:09</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>11:30:20</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>11:33:57</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>11:34:07</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>11:34:18</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>11:34:28</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>11:34:39</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>11:34:49</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>11:35:00</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>11:41:13</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>11:41:24</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>11:41:35</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>11:41:45</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>11:41:56</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>11:42:06</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>11:42:17</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>11:46:31</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>11:46:42</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>11:46:53</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>11:47:03</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>11:47:14</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>11:47:25</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>11:54:24</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>11:54:34</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>11:54:45</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>11:54:56</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>11:55:06</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>11:55:17</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>11:55:28</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>11:58:51</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>11:59:02</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>11:59:12</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>11:59:23</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>11:59:49</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>12:09:06</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>12:09:17</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>12:09:27</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>12:09:38</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>12:09:48</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>12:09:59</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>12:10:09</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>12:14:39</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>12:15:02</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>12:15:13</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>12:21:14</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>12:21:35</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>12:21:46</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>12:28:52</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>12:29:02</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>12:31:16</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>12:31:26</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>13:40:35</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>13:40:45</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>13:45:18</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>13:51:36</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>13:52:00</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>تست ورود صحیح و نمایش داشبورد</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>13:53:02</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>ناموفق</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>./screenshots\تست ورود صحیح و نمایش داشبورد_2025-07-15_13-53-02.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با نام کاربری اشتباه</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>13:53:12</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با پسورد اشتباه</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>13:53:23</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>13:53:34</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>13:53:44</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>13:53:55</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>13:54:05</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>13:59:10</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>13:59:21</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ثبت‌نام بدون نام</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>13:59:30</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>13:59:57</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>14:00:06</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>14:00:15</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>14:00:25</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>14:00:34</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>تست عدم ورود با کد کپچا اشتباه</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>14:11:10</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>14:11:21</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>14:11:31</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>14:11:42</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>ثبت‌نام صحیح</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>14:11:53</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با کد ملی نا معتبر</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>14:12:26</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>14:12:38</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>14:12:48</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>موفق</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\online-meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D312B6-DEC8-4C67-ACB1-477A19147899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC89086-79E0-4873-9B79-C868494C8D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
   <si>
     <t>تست</t>
   </si>
@@ -35,6 +35,204 @@
   </si>
   <si>
     <t>مسیر اسکرین‌شات</t>
+  </si>
+  <si>
+    <t>تست ورود صحیح و نمایش داشبورد</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>10:02:23</t>
+  </si>
+  <si>
+    <t>موفق</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>تست عدم ورود با نام کاربری اشتباه</t>
+  </si>
+  <si>
+    <t>10:02:34</t>
+  </si>
+  <si>
+    <t>تست عدم ورود با پسورد اشتباه</t>
+  </si>
+  <si>
+    <t>10:02:44</t>
+  </si>
+  <si>
+    <t>تست عدم ورود با کد کپچا اشتباه</t>
+  </si>
+  <si>
+    <t>10:02:55</t>
+  </si>
+  <si>
+    <t>تست عدم ورود بدلیل عدم درج نام کاربری</t>
+  </si>
+  <si>
+    <t>10:03:05</t>
+  </si>
+  <si>
+    <t>تست عدم ورود بدلیل عدم درج پسورد</t>
+  </si>
+  <si>
+    <t>10:03:16</t>
+  </si>
+  <si>
+    <t>تست عدم ورود بدلیل عدم درج کپچا</t>
+  </si>
+  <si>
+    <t>10:03:26</t>
+  </si>
+  <si>
+    <t>ثبت‌نام صحیح</t>
+  </si>
+  <si>
+    <t>10:03:38</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون نام</t>
+  </si>
+  <si>
+    <t>10:03:46</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون نام خانوادگی</t>
+  </si>
+  <si>
+    <t>10:03:55</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون کد ملی</t>
+  </si>
+  <si>
+    <t>10:04:03</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون شماره موبایل</t>
+  </si>
+  <si>
+    <t>10:04:12</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون تاریخ تولد</t>
+  </si>
+  <si>
+    <t>10:04:20</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون پسورد</t>
+  </si>
+  <si>
+    <t>10:04:29</t>
+  </si>
+  <si>
+    <t>ثبت‌نام بدون تکرار پسورد</t>
+  </si>
+  <si>
+    <t>10:04:37</t>
+  </si>
+  <si>
+    <t>درج نام با کمتر از 2 کاراکتر</t>
+  </si>
+  <si>
+    <t>10:05:03</t>
+  </si>
+  <si>
+    <t>ناموفق</t>
+  </si>
+  <si>
+    <t>درج نام خانوادکی با بیش از 60 کاراکتر</t>
+  </si>
+  <si>
+    <t>10:05:28</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با کد ملی کمتر از 10 کاراکتر</t>
+  </si>
+  <si>
+    <t>10:05:37</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با کد ملی نا معتبر</t>
+  </si>
+  <si>
+    <t>10:05:46</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با شماره موبایل کمتر از 11 کاراکتر</t>
+  </si>
+  <si>
+    <t>10:05:55</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با تاریخ تولد بیشتر از 18 سال</t>
+  </si>
+  <si>
+    <t>10:06:05</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با تاریخ تولد کمتر از 120 سال</t>
+  </si>
+  <si>
+    <t>10:06:15</t>
+  </si>
+  <si>
+    <t>رمز عبور با کمتر از 8 کاراکتر</t>
+  </si>
+  <si>
+    <t>10:06:24</t>
+  </si>
+  <si>
+    <t>رمز عبور با حداقل یک حرف بزرگ</t>
+  </si>
+  <si>
+    <t>10:06:26</t>
+  </si>
+  <si>
+    <t>رمز عبور با حداقل یک حرف خاص</t>
+  </si>
+  <si>
+    <t>10:06:28</t>
+  </si>
+  <si>
+    <t>تکرار رمز عبور نا برابر با رمز عبور</t>
+  </si>
+  <si>
+    <t>10:06:37</t>
+  </si>
+  <si>
+    <t>درج نام با کاراکتر های انگلیسی</t>
+  </si>
+  <si>
+    <t>10:06:46</t>
+  </si>
+  <si>
+    <t>درج نام خانوادگی با کاراکتر های انگلیسی</t>
+  </si>
+  <si>
+    <t>10:06:48</t>
+  </si>
+  <si>
+    <t>10:06:57</t>
+  </si>
+  <si>
+    <t>10:06:59</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با کد ملی تکراری</t>
+  </si>
+  <si>
+    <t>10:07:08</t>
+  </si>
+  <si>
+    <t>ثبت‌نام با تاریخ تولد با فرمت اشتباه</t>
+  </si>
+  <si>
+    <t>10:07:32</t>
   </si>
 </sst>
 </file>
@@ -374,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
@@ -406,6 +604,550 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
